--- a/src/data/TestData.xlsx
+++ b/src/data/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Career\GitProjects\Selenium_TestNG\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Career\GitProjects\Selenium_TNG_AdvFrameWork\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
